--- a/raw_data/20200818_saline/20200818_Sensor0_Test_79.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_79.xlsx
@@ -1,2245 +1,2661 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93628474-695D-4747-836D-C9BBFCEC0DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>70202.918348</v>
+        <v>70202.918348000007</v>
       </c>
       <c r="B2" s="1">
-        <v>19.500811</v>
+        <v>19.500810999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>903.033000</v>
+        <v>903.03300000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-189.304000</v>
+        <v>-189.304</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>70213.331322</v>
+        <v>70213.331321999998</v>
       </c>
       <c r="G2" s="1">
-        <v>19.503703</v>
+        <v>19.503703000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>918.934000</v>
+        <v>918.93399999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.187000</v>
+        <v>-161.18700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>70223.813805</v>
+        <v>70223.813804999998</v>
       </c>
       <c r="L2" s="1">
         <v>19.506615</v>
       </c>
       <c r="M2" s="1">
-        <v>941.008000</v>
+        <v>941.00800000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.607000</v>
+        <v>-116.607</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>70234.310143</v>
+        <v>70234.310142999995</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.509531</v>
+        <v>19.509530999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>947.643000</v>
+        <v>947.64300000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.087000</v>
+        <v>-102.087</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>70244.837705</v>
+        <v>70244.837704999998</v>
       </c>
       <c r="V2" s="1">
-        <v>19.512455</v>
+        <v>19.512454999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>954.339000</v>
+        <v>954.33900000000006</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.025400</v>
+        <v>-89.025400000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>70255.295346</v>
+        <v>70255.295345999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.515360</v>
+        <v>19.515360000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.946000</v>
+        <v>961.94600000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.885700</v>
+        <v>-79.8857</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>70265.868885</v>
+        <v>70265.868885000004</v>
       </c>
       <c r="AF2" s="1">
         <v>19.518297</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.207000</v>
+        <v>967.20699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.578900</v>
+        <v>-79.578900000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>70276.647126</v>
+        <v>70276.647125999996</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.521291</v>
+        <v>19.521291000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.189000</v>
+        <v>975.18899999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.396200</v>
+        <v>-87.396199999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>70287.147960</v>
+        <v>70287.147960000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.524208</v>
+        <v>19.524208000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.408000</v>
+        <v>984.40800000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.221000</v>
+        <v>-102.221</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>70298.185401</v>
+        <v>70298.185400999995</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.527274</v>
+        <v>19.527273999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.776000</v>
+        <v>995.77599999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.648000</v>
+        <v>-123.648</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>70309.360764</v>
+        <v>70309.360763999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.530378</v>
+        <v>19.530377999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.390000</v>
+        <v>1005.39</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.329000</v>
+        <v>-142.32900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>70320.390829</v>
+        <v>70320.390828999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.533442</v>
+        <v>19.533442000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.925000</v>
+        <v>-226.92500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>70331.727393</v>
+        <v>70331.727392999994</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.536591</v>
+        <v>19.536591000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1130.640000</v>
+        <v>1130.6400000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.172000</v>
+        <v>-362.17200000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>70343.210736</v>
+        <v>70343.210735999994</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.539781</v>
+        <v>19.539781000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-569.683000</v>
+        <v>-569.68299999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>70353.649040</v>
+        <v>70353.649040000004</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.542680</v>
+        <v>19.542680000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1410.660000</v>
+        <v>1410.66</v>
       </c>
       <c r="BV2" s="1">
-        <v>-790.374000</v>
+        <v>-790.37400000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>70364.313523</v>
+        <v>70364.313523000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.545643</v>
+        <v>19.545642999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.120000</v>
+        <v>1571.12</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1019.880000</v>
+        <v>-1019.88</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>70375.222036</v>
+        <v>70375.222036000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.548673</v>
+        <v>19.548673000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1973.350000</v>
+        <v>1973.35</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1554.790000</v>
+        <v>-1554.79</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>70203.350823</v>
+        <v>70203.350823000001</v>
       </c>
       <c r="B3" s="1">
-        <v>19.500931</v>
+        <v>19.500931000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>903.000000</v>
+        <v>903</v>
       </c>
       <c r="D3" s="1">
-        <v>-189.240000</v>
+        <v>-189.24</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>70213.739539</v>
+        <v>70213.739539000002</v>
       </c>
       <c r="G3" s="1">
-        <v>19.503817</v>
+        <v>19.503817000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>919.132000</v>
+        <v>919.13199999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-161.057000</v>
+        <v>-161.05699999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>70224.179356</v>
+        <v>70224.179355999993</v>
       </c>
       <c r="L3" s="1">
-        <v>19.506716</v>
+        <v>19.506716000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>941.098000</v>
+        <v>941.09799999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.560000</v>
+        <v>-116.56</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>70234.659326</v>
+        <v>70234.659325999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.509628</v>
+        <v>19.509627999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>947.659000</v>
+        <v>947.65899999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.059000</v>
+        <v>-102.059</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>70245.223584</v>
+        <v>70245.223584000007</v>
       </c>
       <c r="V3" s="1">
-        <v>19.512562</v>
+        <v>19.512561999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>954.268000</v>
+        <v>954.26800000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.982700</v>
+        <v>-88.982699999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>70255.680738</v>
+        <v>70255.680737999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.515467</v>
+        <v>19.515467000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.943000</v>
+        <v>961.94299999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.927600</v>
+        <v>-79.927599999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>70266.593252</v>
+        <v>70266.593252000006</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.518498</v>
+        <v>19.518498000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.079000</v>
+        <v>967.07899999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.659100</v>
+        <v>-79.659099999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>70276.986390</v>
+        <v>70276.986390000005</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.521385</v>
+        <v>19.521384999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.159000</v>
+        <v>975.15899999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.401700</v>
+        <v>-87.401700000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>70287.546217</v>
+        <v>70287.546216999996</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.524318</v>
+        <v>19.524318000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.427000</v>
+        <v>984.42700000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.232000</v>
+        <v>-102.232</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>70298.567818</v>
+        <v>70298.567817999996</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.527380</v>
+        <v>19.527380000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.765000</v>
+        <v>995.76499999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.648000</v>
+        <v>-123.648</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>70309.749143</v>
+        <v>70309.749142999994</v>
       </c>
       <c r="AZ3" s="1">
         <v>19.530486</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.380000</v>
+        <v>1005.38</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.322000</v>
+        <v>-142.322</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>70321.099083</v>
+        <v>70321.099082999994</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.533639</v>
+        <v>19.533639000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.925000</v>
+        <v>-226.92500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>70332.193135</v>
+        <v>70332.193134999994</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.536720</v>
+        <v>19.536719999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1130.610000</v>
+        <v>1130.6099999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.147000</v>
+        <v>-362.14699999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>70343.334737</v>
+        <v>70343.334736999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.539815</v>
+        <v>19.539815000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-569.702000</v>
+        <v>-569.702</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>70354.102914</v>
+        <v>70354.102914000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.542806</v>
+        <v>19.542805999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1410.620000</v>
+        <v>1410.62</v>
       </c>
       <c r="BV3" s="1">
-        <v>-790.478000</v>
+        <v>-790.47799999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>70364.778802</v>
+        <v>70364.778802000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.545772</v>
+        <v>19.545771999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.180000</v>
+        <v>1571.18</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1019.840000</v>
+        <v>-1019.84</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>70375.798388</v>
+        <v>70375.798387999996</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.548833</v>
+        <v>19.548832999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>1975.350000</v>
+        <v>1975.35</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1555.350000</v>
+        <v>-1555.35</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>70203.662807</v>
+        <v>70203.662807000001</v>
       </c>
       <c r="B4" s="1">
-        <v>19.501017</v>
+        <v>19.501017000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>903.007000</v>
+        <v>903.00699999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-189.279000</v>
+        <v>-189.279</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>70214.082266</v>
+        <v>70214.082265999998</v>
       </c>
       <c r="G4" s="1">
         <v>19.503912</v>
       </c>
       <c r="H4" s="1">
-        <v>918.815000</v>
+        <v>918.81500000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-161.121000</v>
+        <v>-161.12100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>70224.529500</v>
+        <v>70224.529500000004</v>
       </c>
       <c r="L4" s="1">
-        <v>19.506814</v>
+        <v>19.506813999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>941.026000</v>
+        <v>941.02599999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.626000</v>
+        <v>-116.626</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>70235.007021</v>
+        <v>70235.007020999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.509724</v>
+        <v>19.509723999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>947.670000</v>
+        <v>947.67</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.037000</v>
+        <v>-102.03700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>70245.910543</v>
+        <v>70245.910543000005</v>
       </c>
       <c r="V4" s="1">
         <v>19.512753</v>
       </c>
       <c r="W4" s="1">
-        <v>954.341000</v>
+        <v>954.34100000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.969800</v>
+        <v>-88.969800000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>70256.379602</v>
+        <v>70256.379602000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.515661</v>
+        <v>19.515661000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.929000</v>
+        <v>961.92899999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.914900</v>
+        <v>-79.914900000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>70266.935461</v>
+        <v>70266.935461000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.518593</v>
+        <v>19.518592999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.112000</v>
+        <v>967.11199999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.639200</v>
+        <v>-79.639200000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>70277.335115</v>
+        <v>70277.335114999994</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.521482</v>
+        <v>19.521481999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.162000</v>
+        <v>975.16200000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.378000</v>
+        <v>-87.378</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>70287.906312</v>
+        <v>70287.906312000006</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.524418</v>
+        <v>19.524418000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.405000</v>
+        <v>984.40499999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.222000</v>
+        <v>-102.22199999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>70299.273138</v>
+        <v>70299.273138000004</v>
       </c>
       <c r="AU4" s="1">
         <v>19.527576</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.752000</v>
+        <v>995.75199999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.646000</v>
+        <v>-123.646</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>70310.418766</v>
+        <v>70310.418766000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.530672</v>
+        <v>19.530671999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.380000</v>
+        <v>1005.38</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.352000</v>
+        <v>-142.352</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>70321.501867</v>
+        <v>70321.501866999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.533751</v>
+        <v>19.533750999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.928000</v>
+        <v>-226.928</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>70332.593372</v>
+        <v>70332.593372000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.536831</v>
+        <v>19.536830999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1130.620000</v>
+        <v>1130.6199999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.160000</v>
+        <v>-362.16</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>70343.736990</v>
+        <v>70343.736990000005</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.539927</v>
+        <v>19.539926999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.810000</v>
+        <v>1262.81</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-569.706000</v>
+        <v>-569.70600000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>70354.529936</v>
+        <v>70354.529936000006</v>
       </c>
       <c r="BT4" s="1">
         <v>19.542925</v>
       </c>
       <c r="BU4" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="BV4" s="1">
-        <v>-790.627000</v>
+        <v>-790.62699999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>70365.224705</v>
+        <v>70365.224705000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.545896</v>
+        <v>19.545895999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.250000</v>
+        <v>1571.25</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1019.750000</v>
+        <v>-1019.75</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>70376.331618</v>
+        <v>70376.331617999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.548981</v>
+        <v>19.548981000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1974.090000</v>
+        <v>1974.09</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1554.610000</v>
+        <v>-1554.61</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>70204.005542</v>
+        <v>70204.005541999999</v>
       </c>
       <c r="B5" s="1">
         <v>19.501113</v>
       </c>
       <c r="C5" s="1">
-        <v>903.036000</v>
+        <v>903.03599999999994</v>
       </c>
       <c r="D5" s="1">
-        <v>-189.389000</v>
+        <v>-189.38900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>70214.429466</v>
+        <v>70214.429466000001</v>
       </c>
       <c r="G5" s="1">
-        <v>19.504008</v>
+        <v>19.504007999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>918.963000</v>
+        <v>918.96299999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-161.410000</v>
+        <v>-161.41</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>70225.216490</v>
+        <v>70225.216490000006</v>
       </c>
       <c r="L5" s="1">
-        <v>19.507005</v>
+        <v>19.507004999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>941.026000</v>
+        <v>941.02599999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.641000</v>
+        <v>-116.64100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>70235.706349</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.509918</v>
+        <v>19.509917999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>947.667000</v>
+        <v>947.66700000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.057000</v>
+        <v>-102.057</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>70246.252782</v>
+        <v>70246.252781999996</v>
       </c>
       <c r="V5" s="1">
-        <v>19.512848</v>
+        <v>19.512848000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>954.308000</v>
+        <v>954.30799999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.984700</v>
+        <v>-88.984700000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>70256.727298</v>
+        <v>70256.727297999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.515758</v>
+        <v>19.515758000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.981000</v>
+        <v>961.98099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.884000</v>
+        <v>-79.884</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>70267.277730</v>
+        <v>70267.277730000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.518688</v>
+        <v>19.518688000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.044000</v>
+        <v>967.04399999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.669000</v>
+        <v>-79.668999999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>70277.992276</v>
+        <v>70277.992276000004</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.521665</v>
+        <v>19.521664999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.165000</v>
+        <v>975.16499999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.379400</v>
+        <v>-87.379400000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>70288.578918</v>
+        <v>70288.578917999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.524605</v>
+        <v>19.524605000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.414000</v>
+        <v>984.41399999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.217000</v>
+        <v>-102.217</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>70299.690264</v>
+        <v>70299.690264000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.527692</v>
+        <v>19.527691999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.762000</v>
+        <v>995.76199999999994</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.661000</v>
+        <v>-123.661</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>70310.855706</v>
+        <v>70310.855706000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.530793</v>
+        <v>19.530792999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.370000</v>
+        <v>1005.37</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.325000</v>
+        <v>-142.32499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>70321.862464</v>
+        <v>70321.862464000005</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.533851</v>
+        <v>19.533850999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1050.670000</v>
+        <v>1050.67</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.952000</v>
+        <v>-226.952</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>70332.969837</v>
+        <v>70332.969836999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.536936</v>
+        <v>19.536936000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1130.610000</v>
+        <v>1130.6099999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.158000</v>
+        <v>-362.15800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>70344.135309</v>
+        <v>70344.135309000005</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.540038</v>
+        <v>19.540037999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-569.665000</v>
+        <v>-569.66499999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>70354.953022</v>
+        <v>70354.953022000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.543043</v>
+        <v>19.543043000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="BV5" s="1">
-        <v>-790.620000</v>
+        <v>-790.62</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>70365.679506</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.546022</v>
+        <v>19.546022000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.220000</v>
+        <v>1571.22</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1019.700000</v>
+        <v>-1019.7</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>70376.850899</v>
+        <v>70376.850898999997</v>
       </c>
       <c r="CD5" s="1">
         <v>19.549125</v>
       </c>
       <c r="CE5" s="1">
-        <v>1974.690000</v>
+        <v>1974.69</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1555.000000</v>
+        <v>-1555</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>70204.351749</v>
+        <v>70204.351748999994</v>
       </c>
       <c r="B6" s="1">
-        <v>19.501209</v>
+        <v>19.501208999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>902.965000</v>
+        <v>902.96500000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-189.334000</v>
+        <v>-189.334</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>70215.116951</v>
+        <v>70215.116951000004</v>
       </c>
       <c r="G6" s="1">
         <v>19.504199</v>
       </c>
       <c r="H6" s="1">
-        <v>919.413000</v>
+        <v>919.41300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.287000</v>
+        <v>-161.28700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>70225.564651</v>
+        <v>70225.564650999993</v>
       </c>
       <c r="L6" s="1">
-        <v>19.507101</v>
+        <v>19.507100999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>940.964000</v>
+        <v>940.96400000000006</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.544000</v>
+        <v>-116.544</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>70236.053051</v>
+        <v>70236.053050999995</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.510015</v>
+        <v>19.510014999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>947.657000</v>
+        <v>947.65700000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.093000</v>
+        <v>-102.093</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>70246.597006</v>
+        <v>70246.597005999996</v>
       </c>
       <c r="V6" s="1">
-        <v>19.512944</v>
+        <v>19.512944000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>954.275000</v>
+        <v>954.27499999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.071200</v>
+        <v>-89.071200000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>70257.077473</v>
+        <v>70257.077472999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.515855</v>
+        <v>19.515854999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.945000</v>
+        <v>961.94500000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.903300</v>
+        <v>-79.903300000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>70267.935189</v>
+        <v>70267.935188999996</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.518871</v>
+        <v>19.518871000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.160000</v>
+        <v>967.16</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.732100</v>
+        <v>-79.732100000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>70278.380645</v>
+        <v>70278.380644999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.521772</v>
+        <v>19.521771999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.176000</v>
+        <v>975.17600000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.385700</v>
+        <v>-87.3857</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>70288.988087</v>
+        <v>70288.988087000005</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.524719</v>
+        <v>19.524719000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.406000</v>
+        <v>984.40599999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.214000</v>
+        <v>-102.214</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>70300.052839</v>
+        <v>70300.052838999996</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.527792</v>
+        <v>19.527792000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.784000</v>
+        <v>995.78399999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.640000</v>
+        <v>-123.64</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>70311.212826</v>
+        <v>70311.212826000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.530892</v>
+        <v>19.530892000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.400000</v>
+        <v>1005.4</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.331000</v>
+        <v>-142.33099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>70322.224506</v>
+        <v>70322.224505999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.533951</v>
+        <v>19.533950999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.926000</v>
+        <v>-226.92599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>70333.396893</v>
+        <v>70333.396892999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.537055</v>
+        <v>19.537054999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1130.640000</v>
+        <v>1130.6400000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.160000</v>
+        <v>-362.16</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>70344.558897</v>
+        <v>70344.558896999995</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.540155</v>
+        <v>19.540154999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-569.710000</v>
+        <v>-569.71</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>70355.358751</v>
+        <v>70355.358751000007</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.543155</v>
+        <v>19.543154999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1410.450000</v>
+        <v>1410.45</v>
       </c>
       <c r="BV6" s="1">
-        <v>-790.705000</v>
+        <v>-790.70500000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>70366.129872</v>
+        <v>70366.129872000005</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.546147</v>
+        <v>19.546147000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.110000</v>
+        <v>1571.11</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1019.610000</v>
+        <v>-1019.61</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>70377.404433</v>
+        <v>70377.404433000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.549279</v>
+        <v>19.549278999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1975.430000</v>
+        <v>1975.43</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1555.650000</v>
+        <v>-1555.65</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>70205.034742</v>
+        <v>70205.034742000003</v>
       </c>
       <c r="B7" s="1">
-        <v>19.501399</v>
+        <v>19.501398999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>903.108000</v>
+        <v>903.10799999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-189.434000</v>
+        <v>-189.434</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>70215.460647</v>
       </c>
       <c r="G7" s="1">
-        <v>19.504295</v>
+        <v>19.504294999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>919.368000</v>
+        <v>919.36800000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-161.067000</v>
+        <v>-161.06700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>70225.910890</v>
+        <v>70225.910889999999</v>
       </c>
       <c r="L7" s="1">
-        <v>19.507197</v>
+        <v>19.507197000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>941.143000</v>
+        <v>941.14300000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.494000</v>
+        <v>-116.494</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>70236.401772</v>
+        <v>70236.401771999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.510112</v>
+        <v>19.510111999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>947.667000</v>
+        <v>947.66700000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>70247.259192</v>
+        <v>70247.259191999998</v>
       </c>
       <c r="V7" s="1">
-        <v>19.513128</v>
+        <v>19.513127999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>954.299000</v>
+        <v>954.29899999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.942100</v>
+        <v>-88.942099999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>70257.812543</v>
+        <v>70257.812543000007</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.516059</v>
+        <v>19.516058999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.934000</v>
+        <v>961.93399999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.899000</v>
+        <v>-79.899000000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>70268.309874</v>
+        <v>70268.309873999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.518975</v>
+        <v>19.518975000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.148000</v>
+        <v>967.14800000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.727700</v>
+        <v>-79.727699999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>70278.730850</v>
+        <v>70278.730850000007</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.521870</v>
+        <v>19.52187</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.184000</v>
+        <v>975.18399999999997</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.380200</v>
+        <v>-87.380200000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>70289.375462</v>
+        <v>70289.375461999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.524827</v>
+        <v>19.524826999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.414000</v>
+        <v>984.41399999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.217000</v>
+        <v>-102.217</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>70300.415926</v>
+        <v>70300.415926000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.527893</v>
+        <v>19.527892999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.757000</v>
+        <v>995.75699999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.655000</v>
+        <v>-123.655</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>70311.825385</v>
+        <v>70311.825385000004</v>
       </c>
       <c r="AZ7" s="1">
         <v>19.531063</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.370000</v>
+        <v>1005.37</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.339000</v>
+        <v>-142.339</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>70322.643129</v>
+        <v>70322.643129000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.534068</v>
+        <v>19.534068000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.700000</v>
+        <v>1050.7</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.945000</v>
+        <v>-226.94499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>70333.727227</v>
+        <v>70333.727226999996</v>
       </c>
       <c r="BJ7" s="1">
         <v>19.537146</v>
       </c>
       <c r="BK7" s="1">
-        <v>1130.640000</v>
+        <v>1130.6400000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.219000</v>
+        <v>-362.21899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>70344.953181</v>
+        <v>70344.953181000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.540265</v>
+        <v>19.540265000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1262.740000</v>
+        <v>1262.74</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-569.726000</v>
+        <v>-569.726</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>70355.772415</v>
+        <v>70355.772414999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.543270</v>
+        <v>19.54327</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.290000</v>
+        <v>1410.29</v>
       </c>
       <c r="BV7" s="1">
-        <v>-790.692000</v>
+        <v>-790.69200000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>70366.552960</v>
+        <v>70366.552960000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.546265</v>
+        <v>19.546264999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.170000</v>
+        <v>1571.17</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1019.900000</v>
+        <v>-1019.9</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>70377.933666</v>
+        <v>70377.933665999997</v>
       </c>
       <c r="CD7" s="1">
         <v>19.549426</v>
       </c>
       <c r="CE7" s="1">
-        <v>1974.440000</v>
+        <v>1974.44</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1554.780000</v>
+        <v>-1554.78</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>70205.381444</v>
+        <v>70205.381443999999</v>
       </c>
       <c r="B8" s="1">
-        <v>19.501495</v>
+        <v>19.501494999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>902.996000</v>
+        <v>902.99599999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-189.154000</v>
+        <v>-189.154</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>70215.805367</v>
+        <v>70215.805366999994</v>
       </c>
       <c r="G8" s="1">
-        <v>19.504390</v>
+        <v>19.504390000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>919.382000</v>
+        <v>919.38199999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.057000</v>
+        <v>-161.05699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>70226.562602</v>
+        <v>70226.562602000005</v>
       </c>
       <c r="L8" s="1">
         <v>19.507379</v>
       </c>
       <c r="M8" s="1">
-        <v>941.098000</v>
+        <v>941.09799999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.509000</v>
+        <v>-116.509</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>70237.061451</v>
+        <v>70237.061451000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.510295</v>
+        <v>19.510294999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>947.657000</v>
+        <v>947.65700000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.018000</v>
+        <v>-102.018</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>70247.632684</v>
+        <v>70247.632683999997</v>
       </c>
       <c r="V8" s="1">
-        <v>19.513231</v>
+        <v>19.513231000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>954.403000</v>
+        <v>954.40300000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.956400</v>
+        <v>-88.956400000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>70258.125023</v>
+        <v>70258.125023000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.516146</v>
+        <v>19.516145999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.989000</v>
+        <v>961.98900000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.917200</v>
+        <v>-79.917199999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>70268.652610</v>
+        <v>70268.652610000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.519070</v>
+        <v>19.519069999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.110000</v>
+        <v>967.11</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.729000</v>
+        <v>-79.728999999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>70279.078548</v>
+        <v>70279.078548000005</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.521966</v>
+        <v>19.521965999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.187000</v>
+        <v>975.18700000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.398000</v>
+        <v>-87.397999999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>70289.735061</v>
+        <v>70289.735060999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.524926</v>
+        <v>19.524926000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.394000</v>
+        <v>984.39400000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>70300.844983</v>
+        <v>70300.844983000003</v>
       </c>
       <c r="AU8" s="1">
         <v>19.528012</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.757000</v>
+        <v>995.75699999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.652000</v>
+        <v>-123.652</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>70311.931273</v>
+        <v>70311.931272999995</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.531092</v>
+        <v>19.531092000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.390000</v>
+        <v>1005.39</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.343000</v>
+        <v>-142.34299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>70322.945721</v>
+        <v>70322.945720999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.534152</v>
+        <v>19.534151999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.700000</v>
+        <v>1050.7</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.924000</v>
+        <v>-226.92400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>70334.116586</v>
+        <v>70334.116586000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.537255</v>
+        <v>19.537254999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1130.620000</v>
+        <v>1130.6199999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.159000</v>
+        <v>-362.15899999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>70345.374285</v>
+        <v>70345.374284999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.540382</v>
+        <v>19.540382000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-569.698000</v>
+        <v>-569.69799999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>70356.187101</v>
+        <v>70356.187101000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.543385</v>
+        <v>19.543385000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.220000</v>
+        <v>1410.22</v>
       </c>
       <c r="BV8" s="1">
-        <v>-790.633000</v>
+        <v>-790.63300000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>70366.973071</v>
@@ -2248,270 +2664,270 @@
         <v>19.546381</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.120000</v>
+        <v>1571.12</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1019.760000</v>
+        <v>-1019.76</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>70378.449537</v>
+        <v>70378.449536999993</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.549569</v>
+        <v>19.549569000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1974.770000</v>
+        <v>1974.77</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1555.190000</v>
+        <v>-1555.19</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>70206.036197</v>
+        <v>70206.036196999994</v>
       </c>
       <c r="B9" s="1">
-        <v>19.501677</v>
+        <v>19.501677000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>903.049000</v>
+        <v>903.04899999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-189.310000</v>
+        <v>-189.31</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>70216.458632</v>
+        <v>70216.458631999994</v>
       </c>
       <c r="G9" s="1">
         <v>19.504572</v>
       </c>
       <c r="H9" s="1">
-        <v>919.685000</v>
+        <v>919.68499999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-161.024000</v>
+        <v>-161.024</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>70226.944561</v>
+        <v>70226.944560999997</v>
       </c>
       <c r="L9" s="1">
-        <v>19.507485</v>
+        <v>19.507484999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>941.012000</v>
+        <v>941.01199999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.576000</v>
+        <v>-116.57599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>70237.449786</v>
+        <v>70237.449785999997</v>
       </c>
       <c r="Q9" s="1">
         <v>19.510403</v>
       </c>
       <c r="R9" s="1">
-        <v>947.647000</v>
+        <v>947.64700000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.022000</v>
+        <v>-102.02200000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>70247.976912</v>
+        <v>70247.976911999998</v>
       </c>
       <c r="V9" s="1">
         <v>19.513327</v>
       </c>
       <c r="W9" s="1">
-        <v>954.332000</v>
+        <v>954.33199999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.903000</v>
+        <v>-88.903000000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>70258.471262</v>
+        <v>70258.471262000006</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.516242</v>
+        <v>19.516241999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.876000</v>
+        <v>961.87599999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.935800</v>
+        <v>-79.9358</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>70268.998353</v>
+        <v>70268.998353000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.519166</v>
+        <v>19.519165999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.107000</v>
+        <v>967.10699999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.613300</v>
+        <v>-79.613299999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>70279.487251</v>
+        <v>70279.487250999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.522080</v>
+        <v>19.522079999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.161000</v>
+        <v>975.16099999999994</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.408000</v>
+        <v>-87.408000000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>70290.152692</v>
+        <v>70290.152692000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.525042</v>
+        <v>19.525041999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.427000</v>
+        <v>984.42700000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.220000</v>
+        <v>-102.22</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>70301.146058</v>
+        <v>70301.146057999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.528096</v>
+        <v>19.528096000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.771000</v>
+        <v>995.77099999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.646000</v>
+        <v>-123.646</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>70312.290137</v>
+        <v>70312.290137000004</v>
       </c>
       <c r="AZ9" s="1">
-        <v>19.531192</v>
+        <v>19.531192000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.380000</v>
+        <v>1005.38</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.340000</v>
+        <v>-142.34</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>70323.305289</v>
+        <v>70323.305288999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.534251</v>
+        <v>19.534251000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1050.700000</v>
+        <v>1050.7</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.936000</v>
+        <v>-226.93600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>70334.492092</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.537359</v>
+        <v>19.537358999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1130.640000</v>
+        <v>1130.6400000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.161000</v>
+        <v>-362.161</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>70345.772075</v>
+        <v>70345.772075000001</v>
       </c>
       <c r="BO9" s="1">
         <v>19.540492</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-569.701000</v>
+        <v>-569.70100000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>70356.608207</v>
+        <v>70356.608206999997</v>
       </c>
       <c r="BT9" s="1">
         <v>19.543502</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.130000</v>
+        <v>1410.13</v>
       </c>
       <c r="BV9" s="1">
-        <v>-790.673000</v>
+        <v>-790.673</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>70367.398638</v>
+        <v>70367.398637999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.546500</v>
+        <v>19.546500000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.150000</v>
+        <v>1571.15</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1019.870000</v>
+        <v>-1019.87</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>70379.004042</v>
@@ -2520,240 +2936,240 @@
         <v>19.549723</v>
       </c>
       <c r="CE9" s="1">
-        <v>1975.150000</v>
+        <v>1975.15</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1556.520000</v>
+        <v>-1556.52</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>70206.409683</v>
+        <v>70206.409683000005</v>
       </c>
       <c r="B10" s="1">
-        <v>19.501780</v>
+        <v>19.50178</v>
       </c>
       <c r="C10" s="1">
-        <v>903.022000</v>
+        <v>903.02200000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-189.469000</v>
+        <v>-189.46899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>70216.843029</v>
+        <v>70216.843028999996</v>
       </c>
       <c r="G10" s="1">
-        <v>19.504679</v>
+        <v>19.504678999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>919.702000</v>
+        <v>919.702</v>
       </c>
       <c r="I10" s="1">
-        <v>-160.931000</v>
+        <v>-160.93100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>70227.289240</v>
+        <v>70227.289239999998</v>
       </c>
       <c r="L10" s="1">
-        <v>19.507580</v>
+        <v>19.507580000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.954000</v>
+        <v>940.95399999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.640000</v>
+        <v>-116.64</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>70237.798970</v>
+        <v>70237.798970000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.510500</v>
+        <v>19.5105</v>
       </c>
       <c r="R10" s="1">
-        <v>947.691000</v>
+        <v>947.69100000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.041000</v>
+        <v>-102.041</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>70248.320605</v>
+        <v>70248.320605000001</v>
       </c>
       <c r="V10" s="1">
-        <v>19.513422</v>
+        <v>19.513421999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>954.314000</v>
+        <v>954.31399999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.036200</v>
+        <v>-89.036199999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>70258.890847</v>
+        <v>70258.890847000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.516359</v>
+        <v>19.516359000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.921000</v>
+        <v>961.92100000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.915300</v>
+        <v>-79.915300000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>70269.430336</v>
+        <v>70269.430336000005</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.519286</v>
+        <v>19.519286000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.013000</v>
+        <v>967.01300000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.649700</v>
+        <v>-79.649699999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>70279.778370</v>
+        <v>70279.77837</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.522161</v>
+        <v>19.522161000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.193000</v>
+        <v>975.19299999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.367600</v>
+        <v>-87.367599999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>70290.453764</v>
+        <v>70290.453764000005</v>
       </c>
       <c r="AP10" s="1">
         <v>19.525126</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.419000</v>
+        <v>984.41899999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>70301.515059</v>
+        <v>70301.515058999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.528199</v>
+        <v>19.528199000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.772000</v>
+        <v>995.77200000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.649000</v>
+        <v>-123.649</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>70312.653208</v>
+        <v>70312.653208000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.531293</v>
+        <v>19.531293000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.370000</v>
+        <v>1005.37</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.323000</v>
+        <v>-142.32300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>70323.668360</v>
+        <v>70323.668359999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.534352</v>
+        <v>19.534351999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.928000</v>
+        <v>-226.928</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>70335.243496</v>
+        <v>70335.243495999996</v>
       </c>
       <c r="BJ10" s="1">
         <v>19.537568</v>
       </c>
       <c r="BK10" s="1">
-        <v>1130.630000</v>
+        <v>1130.6300000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.152000</v>
+        <v>-362.15199999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>70346.225418</v>
+        <v>70346.225418000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.540618</v>
+        <v>19.540617999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-569.730000</v>
+        <v>-569.73</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>70357.017868</v>
+        <v>70357.017867999995</v>
       </c>
       <c r="BT10" s="1">
         <v>19.543616</v>
       </c>
       <c r="BU10" s="1">
-        <v>1410.090000</v>
+        <v>1410.09</v>
       </c>
       <c r="BV10" s="1">
-        <v>-790.618000</v>
+        <v>-790.61800000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>70367.816798</v>
@@ -2762,1450 +3178,1450 @@
         <v>19.546616</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.210000</v>
+        <v>1571.21</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1019.800000</v>
+        <v>-1019.8</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>70379.534751</v>
+        <v>70379.534750999999</v>
       </c>
       <c r="CD10" s="1">
         <v>19.549871</v>
       </c>
       <c r="CE10" s="1">
-        <v>1974.950000</v>
+        <v>1974.95</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1554.900000</v>
+        <v>-1554.9</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>70206.756356</v>
+        <v>70206.756355999998</v>
       </c>
       <c r="B11" s="1">
         <v>19.501877</v>
       </c>
       <c r="C11" s="1">
-        <v>903.012000</v>
+        <v>903.01199999999994</v>
       </c>
       <c r="D11" s="1">
-        <v>-189.300000</v>
+        <v>-189.3</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>70217.187257</v>
+        <v>70217.187256999998</v>
       </c>
       <c r="G11" s="1">
-        <v>19.504774</v>
+        <v>19.504774000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.191000</v>
+        <v>919.19100000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-160.925000</v>
+        <v>-160.92500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>70227.637959</v>
       </c>
       <c r="L11" s="1">
-        <v>19.507677</v>
+        <v>19.507677000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.926000</v>
+        <v>940.92600000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.521000</v>
+        <v>-116.521</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>70238.146665</v>
+        <v>70238.146664999993</v>
       </c>
       <c r="Q11" s="1">
         <v>19.510596</v>
       </c>
       <c r="R11" s="1">
-        <v>947.680000</v>
+        <v>947.68</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.060000</v>
+        <v>-102.06</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>70248.742699</v>
+        <v>70248.742698999995</v>
       </c>
       <c r="V11" s="1">
-        <v>19.513540</v>
+        <v>19.513539999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>954.395000</v>
+        <v>954.39499999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.991400</v>
+        <v>-88.991399999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>70259.169387</v>
+        <v>70259.169387000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.516436</v>
+        <v>19.516435999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.916000</v>
+        <v>961.91600000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.899600</v>
+        <v>-79.899600000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>70269.710576</v>
+        <v>70269.710575999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.519364</v>
+        <v>19.519363999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.172000</v>
+        <v>967.17200000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.599500</v>
+        <v>-79.599500000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>70280.126563</v>
+        <v>70280.126562999998</v>
       </c>
       <c r="AK11" s="1">
         <v>19.522257</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.170000</v>
+        <v>975.17</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.379800</v>
+        <v>-87.379800000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>70290.812373</v>
+        <v>70290.812372999993</v>
       </c>
       <c r="AP11" s="1">
         <v>19.525226</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.408000</v>
+        <v>984.40800000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.218000</v>
+        <v>-102.218</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>70301.877622</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.528299</v>
+        <v>19.528299000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.790000</v>
+        <v>995.79</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.671000</v>
+        <v>-123.67100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>70313.366486</v>
+        <v>70313.366485999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>19.531491</v>
+        <v>19.531490999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.390000</v>
+        <v>1005.39</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.333000</v>
+        <v>-142.333</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>70324.389048</v>
+        <v>70324.389047999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.534553</v>
+        <v>19.534552999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.930000</v>
+        <v>-226.93</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>70335.616984</v>
+        <v>70335.616983999993</v>
       </c>
       <c r="BJ11" s="1">
         <v>19.537671</v>
       </c>
       <c r="BK11" s="1">
-        <v>1130.630000</v>
+        <v>1130.6300000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.167000</v>
+        <v>-362.16699999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>70346.585529</v>
+        <v>70346.585529000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.540718</v>
+        <v>19.540717999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-569.729000</v>
+        <v>-569.72900000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>70357.428060</v>
+        <v>70357.428060000006</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.543730</v>
+        <v>19.54373</v>
       </c>
       <c r="BU11" s="1">
-        <v>1409.990000</v>
+        <v>1409.99</v>
       </c>
       <c r="BV11" s="1">
-        <v>-790.598000</v>
+        <v>-790.59799999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>70368.576352</v>
+        <v>70368.576352000004</v>
       </c>
       <c r="BY11" s="1">
         <v>19.546827</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.180000</v>
+        <v>1571.18</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1019.940000</v>
+        <v>-1019.94</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>70380.362078</v>
+        <v>70380.362078000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.550101</v>
+        <v>19.550101000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1973.460000</v>
+        <v>1973.46</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1555.360000</v>
+        <v>-1555.36</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>70207.097106</v>
+        <v>70207.097106000001</v>
       </c>
       <c r="B12" s="1">
-        <v>19.501971</v>
+        <v>19.501971000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>903.069000</v>
+        <v>903.06899999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-189.331000</v>
+        <v>-189.33099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>70217.531477</v>
+        <v>70217.531476999997</v>
       </c>
       <c r="G12" s="1">
-        <v>19.504870</v>
+        <v>19.50487</v>
       </c>
       <c r="H12" s="1">
-        <v>919.252000</v>
+        <v>919.25199999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-161.172000</v>
+        <v>-161.172</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>70228.061548</v>
+        <v>70228.061547999998</v>
       </c>
       <c r="L12" s="1">
-        <v>19.507795</v>
+        <v>19.507795000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>940.953000</v>
+        <v>940.95299999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.532000</v>
+        <v>-116.532</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>70238.580170</v>
+        <v>70238.580170000001</v>
       </c>
       <c r="Q12" s="1">
         <v>19.510717</v>
       </c>
       <c r="R12" s="1">
-        <v>947.665000</v>
+        <v>947.66499999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.032000</v>
+        <v>-102.032</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>70249.021452</v>
+        <v>70249.021452000001</v>
       </c>
       <c r="V12" s="1">
         <v>19.513617</v>
       </c>
       <c r="W12" s="1">
-        <v>954.327000</v>
+        <v>954.327</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.022100</v>
+        <v>-89.022099999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>70259.517294</v>
+        <v>70259.517294000005</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.516533</v>
+        <v>19.516532999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.965000</v>
+        <v>961.96500000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.957900</v>
+        <v>-79.957899999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>70270.053844</v>
+        <v>70270.053843999995</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.519459</v>
+        <v>19.519459000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.033000</v>
+        <v>967.03300000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.588200</v>
+        <v>-79.588200000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>70280.475251</v>
+        <v>70280.475250999996</v>
       </c>
       <c r="AK12" s="1">
         <v>19.522354</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.196000</v>
+        <v>975.19600000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.389400</v>
+        <v>-87.389399999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>70291.173956</v>
+        <v>70291.173955999999</v>
       </c>
       <c r="AP12" s="1">
         <v>19.525326</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.415000</v>
+        <v>984.41499999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>70302.605748</v>
+        <v>70302.605748000002</v>
       </c>
       <c r="AU12" s="1">
         <v>19.528502</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.766000</v>
+        <v>995.76599999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.654000</v>
+        <v>-123.654</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>70313.726549</v>
+        <v>70313.726548999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.531591</v>
+        <v>19.531590999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.400000</v>
+        <v>1005.4</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.340000</v>
+        <v>-142.34</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>70324.780469</v>
+        <v>70324.780469000005</v>
       </c>
       <c r="BE12" s="1">
         <v>19.534661</v>
       </c>
       <c r="BF12" s="1">
-        <v>1050.700000</v>
+        <v>1050.7</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.911000</v>
+        <v>-226.911</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>70335.993944</v>
+        <v>70335.993944000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.537776</v>
+        <v>19.537776000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1130.660000</v>
+        <v>1130.6600000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.179000</v>
+        <v>-362.17899999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>70347.321577</v>
+        <v>70347.321576999995</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.540923</v>
+        <v>19.540922999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-569.724000</v>
+        <v>-569.72400000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>70358.157674</v>
+        <v>70358.157674000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.543933</v>
+        <v>19.543932999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1409.950000</v>
+        <v>1409.95</v>
       </c>
       <c r="BV12" s="1">
-        <v>-790.453000</v>
+        <v>-790.45299999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>70368.711586</v>
+        <v>70368.711586000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.546864</v>
+        <v>19.546863999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.310000</v>
+        <v>1571.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1019.890000</v>
+        <v>-1019.89</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>70380.569938</v>
+        <v>70380.569938000001</v>
       </c>
       <c r="CD12" s="1">
         <v>19.550158</v>
       </c>
       <c r="CE12" s="1">
-        <v>1974.050000</v>
+        <v>1974.05</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1556.570000</v>
+        <v>-1556.57</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>70207.520226</v>
+        <v>70207.520225999993</v>
       </c>
       <c r="B13" s="1">
-        <v>19.502089</v>
+        <v>19.502089000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>902.943000</v>
+        <v>902.94299999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-189.060000</v>
+        <v>-189.06</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>70217.942132</v>
+        <v>70217.942131999996</v>
       </c>
       <c r="G13" s="1">
         <v>19.504984</v>
       </c>
       <c r="H13" s="1">
-        <v>919.465000</v>
+        <v>919.46500000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.253000</v>
+        <v>-161.25299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>70228.338777</v>
+        <v>70228.338776999997</v>
       </c>
       <c r="L13" s="1">
-        <v>19.507872</v>
+        <v>19.507871999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>940.867000</v>
+        <v>940.86699999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.499000</v>
+        <v>-116.499</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>70238.845529</v>
+        <v>70238.845528999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.510790</v>
+        <v>19.51079</v>
       </c>
       <c r="R13" s="1">
-        <v>947.641000</v>
+        <v>947.64099999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.066000</v>
+        <v>-102.066</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>70249.366170</v>
+        <v>70249.366169999994</v>
       </c>
       <c r="V13" s="1">
-        <v>19.513713</v>
+        <v>19.513712999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>954.316000</v>
+        <v>954.31600000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.002600</v>
+        <v>-89.002600000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>70259.864990</v>
+        <v>70259.864990000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.516629</v>
+        <v>19.516628999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.911000</v>
+        <v>961.91099999999994</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.939100</v>
+        <v>-79.939099999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>70270.398030</v>
+        <v>70270.398029999997</v>
       </c>
       <c r="AF13" s="1">
         <v>19.519555</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.042000</v>
+        <v>967.04200000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.653400</v>
+        <v>-79.653400000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>70281.174112</v>
+        <v>70281.174111999993</v>
       </c>
       <c r="AK13" s="1">
         <v>19.522548</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.198000</v>
+        <v>975.19799999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.373700</v>
+        <v>-87.373699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>70291.894679</v>
+        <v>70291.894679000005</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.525526</v>
+        <v>19.525525999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.408000</v>
+        <v>984.40800000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>70302.998084</v>
+        <v>70302.998084000006</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.528611</v>
+        <v>19.528611000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.762000</v>
+        <v>995.76199999999994</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.658000</v>
+        <v>-123.658</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>70314.085156</v>
+        <v>70314.085156000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.531690</v>
+        <v>19.531690000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.390000</v>
+        <v>1005.39</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.316000</v>
+        <v>-142.316</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>70325.141510</v>
+        <v>70325.141510000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.534762</v>
+        <v>19.534762000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.680000</v>
+        <v>1050.68</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.939000</v>
+        <v>-226.93899999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>70336.709708</v>
+        <v>70336.709707999995</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.537975</v>
+        <v>19.537974999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1130.620000</v>
+        <v>1130.6199999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.158000</v>
+        <v>-362.15800000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>70347.827497</v>
+        <v>70347.827497000006</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.541063</v>
+        <v>19.541063000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1262.800000</v>
+        <v>1262.8</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-569.725000</v>
+        <v>-569.72500000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>70358.267818</v>
+        <v>70358.267817999993</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.543963</v>
+        <v>19.543963000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.890000</v>
+        <v>1409.89</v>
       </c>
       <c r="BV13" s="1">
-        <v>-790.397000</v>
+        <v>-790.39700000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>70369.136620</v>
+        <v>70369.136620000005</v>
       </c>
       <c r="BY13" s="1">
         <v>19.546982</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.270000</v>
+        <v>1571.27</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1019.760000</v>
+        <v>-1019.76</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>70381.086732</v>
+        <v>70381.086731999996</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.550302</v>
+        <v>19.550301999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1974.230000</v>
+        <v>1974.23</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1556.720000</v>
+        <v>-1556.72</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>70207.796465</v>
+        <v>70207.796465000007</v>
       </c>
       <c r="B14" s="1">
-        <v>19.502166</v>
+        <v>19.502165999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>903.134000</v>
+        <v>903.13400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-189.307000</v>
+        <v>-189.30699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>70218.224886</v>
+        <v>70218.224885999996</v>
       </c>
       <c r="G14" s="1">
-        <v>19.505062</v>
+        <v>19.505061999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>919.215000</v>
+        <v>919.21500000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-160.883000</v>
+        <v>-160.88300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>70228.684485</v>
+        <v>70228.684485000005</v>
       </c>
       <c r="L14" s="1">
-        <v>19.507968</v>
+        <v>19.507968000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>940.996000</v>
+        <v>940.99599999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.532000</v>
+        <v>-116.532</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>70239.192245</v>
+        <v>70239.192244999998</v>
       </c>
       <c r="Q14" s="1">
         <v>19.510887</v>
       </c>
       <c r="R14" s="1">
-        <v>947.669000</v>
+        <v>947.66899999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.068000</v>
+        <v>-102.068</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>70249.709434</v>
+        <v>70249.709434000004</v>
       </c>
       <c r="V14" s="1">
-        <v>19.513808</v>
+        <v>19.513808000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>954.455000</v>
+        <v>954.45500000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.036000</v>
+        <v>-89.036000000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>70260.561867</v>
+        <v>70260.561866999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.516823</v>
+        <v>19.516822999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.869000</v>
+        <v>961.86900000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.942900</v>
+        <v>-79.942899999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>70271.082511</v>
+        <v>70271.082511000001</v>
       </c>
       <c r="AF14" s="1">
         <v>19.519745</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.111000</v>
+        <v>967.11099999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.618600</v>
+        <v>-79.618600000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>70281.522305</v>
+        <v>70281.522305000006</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.522645</v>
+        <v>19.522645000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.194000</v>
+        <v>975.19399999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.357800</v>
+        <v>-87.357799999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>70292.244818</v>
+        <v>70292.244818000006</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.525624</v>
+        <v>19.525624000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.413000</v>
+        <v>984.41300000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.220000</v>
+        <v>-102.22</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>70303.361651</v>
+        <v>70303.361650999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.528712</v>
+        <v>19.528711999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.778000</v>
+        <v>995.77800000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.657000</v>
+        <v>-123.657</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>70314.764533</v>
+        <v>70314.764532999994</v>
       </c>
       <c r="AZ14" s="1">
         <v>19.531879</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.370000</v>
+        <v>1005.37</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.332000</v>
+        <v>-142.33199999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>70325.809621</v>
+        <v>70325.809620999993</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.534947</v>
+        <v>19.534946999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1050.680000</v>
+        <v>1050.68</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.945000</v>
+        <v>-226.94499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>70337.141223</v>
+        <v>70337.141222999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.538095</v>
+        <v>19.538094999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1130.620000</v>
+        <v>1130.6199999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.178000</v>
+        <v>-362.178</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>70348.243144</v>
+        <v>70348.243143999993</v>
       </c>
       <c r="BO14" s="1">
         <v>19.541179</v>
       </c>
       <c r="BP14" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-569.758000</v>
+        <v>-569.75800000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>70358.700298</v>
+        <v>70358.700297999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.544083</v>
+        <v>19.544083000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1409.910000</v>
+        <v>1409.91</v>
       </c>
       <c r="BV14" s="1">
-        <v>-790.288000</v>
+        <v>-790.28800000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>70369.553789</v>
+        <v>70369.553788999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.547098</v>
+        <v>19.547097999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.130000</v>
+        <v>1571.13</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1019.770000</v>
+        <v>-1019.77</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>70381.651676</v>
+        <v>70381.651675999994</v>
       </c>
       <c r="CD14" s="1">
         <v>19.550459</v>
       </c>
       <c r="CE14" s="1">
-        <v>1973.130000</v>
+        <v>1973.13</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1555.990000</v>
+        <v>-1555.99</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>70208.141186</v>
+        <v>70208.141185999993</v>
       </c>
       <c r="B15" s="1">
-        <v>19.502261</v>
+        <v>19.502261000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>903.027000</v>
+        <v>903.02700000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-189.220000</v>
+        <v>-189.22</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>70218.570099</v>
+        <v>70218.570099000004</v>
       </c>
       <c r="G15" s="1">
-        <v>19.505158</v>
+        <v>19.505158000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>919.027000</v>
+        <v>919.02700000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-160.783000</v>
+        <v>-160.78299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>70229.028245</v>
+        <v>70229.028244999994</v>
       </c>
       <c r="L15" s="1">
         <v>19.508063</v>
       </c>
       <c r="M15" s="1">
-        <v>941.104000</v>
+        <v>941.10400000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.540000</v>
+        <v>-116.54</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>70239.539464</v>
+        <v>70239.539464000001</v>
       </c>
       <c r="Q15" s="1">
         <v>19.510983</v>
       </c>
       <c r="R15" s="1">
-        <v>947.666000</v>
+        <v>947.66600000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.998000</v>
+        <v>-101.998</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>70250.395401</v>
+        <v>70250.395401000002</v>
       </c>
       <c r="V15" s="1">
-        <v>19.513999</v>
+        <v>19.513998999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>954.423000</v>
+        <v>954.423</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.982600</v>
+        <v>-88.982600000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>70260.910567</v>
+        <v>70260.910566999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.516920</v>
+        <v>19.516919999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.004000</v>
+        <v>962.00400000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.989100</v>
+        <v>-79.989099999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>70271.426237</v>
+        <v>70271.426237000007</v>
       </c>
       <c r="AF15" s="1">
         <v>19.519841</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.067000</v>
+        <v>967.06700000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.608400</v>
+        <v>-79.608400000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>70281.868543</v>
+        <v>70281.868543000004</v>
       </c>
       <c r="AK15" s="1">
         <v>19.522741</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.184000</v>
+        <v>975.18399999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.397400</v>
+        <v>-87.397400000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>70292.613384</v>
+        <v>70292.613383999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.525726</v>
+        <v>19.525725999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.408000</v>
+        <v>984.40800000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.205000</v>
+        <v>-102.205</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>70304.030258</v>
+        <v>70304.030257999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.528897</v>
+        <v>19.528897000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.758000</v>
+        <v>995.75800000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.645000</v>
+        <v>-123.645</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>70315.181115</v>
+        <v>70315.181114999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.531995</v>
+        <v>19.531994999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.400000</v>
+        <v>1005.4</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.322000</v>
+        <v>-142.322</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>70326.225237</v>
+        <v>70326.225237000006</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.535063</v>
+        <v>19.535063000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1050.710000</v>
+        <v>1050.71</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.924000</v>
+        <v>-226.92400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>70337.545431</v>
+        <v>70337.545431000006</v>
       </c>
       <c r="BJ15" s="1">
         <v>19.538207</v>
       </c>
       <c r="BK15" s="1">
-        <v>1130.650000</v>
+        <v>1130.6500000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.178000</v>
+        <v>-362.178</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>70348.640935</v>
+        <v>70348.640935000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.541289</v>
+        <v>19.541288999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-569.749000</v>
+        <v>-569.74900000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>70359.113497</v>
+        <v>70359.113496999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.544198</v>
+        <v>19.544198000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1410.020000</v>
+        <v>1410.02</v>
       </c>
       <c r="BV15" s="1">
-        <v>-790.244000</v>
+        <v>-790.24400000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>70370.001644</v>
+        <v>70370.001644000004</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.547223</v>
+        <v>19.547222999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.150000</v>
+        <v>1571.15</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1019.870000</v>
+        <v>-1019.87</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>70382.169003</v>
+        <v>70382.169003000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.550603</v>
+        <v>19.550602999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1974.290000</v>
+        <v>1974.29</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1556.730000</v>
+        <v>-1556.73</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>70208.480977</v>
+        <v>70208.480976999999</v>
       </c>
       <c r="B16" s="1">
-        <v>19.502356</v>
+        <v>19.502355999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>903.045000</v>
+        <v>903.04499999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-189.399000</v>
+        <v>-189.399</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>70218.915780</v>
+        <v>70218.915779999996</v>
       </c>
       <c r="G16" s="1">
-        <v>19.505254</v>
+        <v>19.505254000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>918.965000</v>
+        <v>918.96500000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-160.908000</v>
+        <v>-160.90799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>70229.722612</v>
+        <v>70229.722611999998</v>
       </c>
       <c r="L16" s="1">
-        <v>19.508256</v>
+        <v>19.508255999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.127000</v>
+        <v>941.12699999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.533000</v>
+        <v>-116.533</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>70240.237798</v>
+        <v>70240.237798000002</v>
       </c>
       <c r="Q16" s="1">
         <v>19.511177</v>
       </c>
       <c r="R16" s="1">
-        <v>947.681000</v>
+        <v>947.68100000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.022000</v>
+        <v>-102.02200000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>70250.739624</v>
+        <v>70250.739623999994</v>
       </c>
       <c r="V16" s="1">
         <v>19.514094</v>
       </c>
       <c r="W16" s="1">
-        <v>954.400000</v>
+        <v>954.4</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.959700</v>
+        <v>-88.959699999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>70261.257258</v>
+        <v>70261.257257999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.517016</v>
+        <v>19.517016000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.927000</v>
+        <v>961.92700000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.996900</v>
+        <v>-79.996899999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>70271.769997</v>
+        <v>70271.769996999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.519936</v>
+        <v>19.519936000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.119000</v>
+        <v>967.11900000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.616800</v>
+        <v>-79.616799999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>70282.533153</v>
+        <v>70282.533152999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.522926</v>
+        <v>19.522925999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.181000</v>
+        <v>975.18100000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.385200</v>
+        <v>-87.385199999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>70293.450593</v>
+        <v>70293.450593000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.525958</v>
+        <v>19.525957999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.399000</v>
+        <v>984.399</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.215000</v>
+        <v>-102.215</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>70304.477153</v>
@@ -4214,936 +4630,936 @@
         <v>19.529021</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.778000</v>
+        <v>995.77800000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.665000</v>
+        <v>-123.66500000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>70315.563270</v>
+        <v>70315.563269999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.532101</v>
+        <v>19.532101000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.370000</v>
+        <v>1005.37</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.336000</v>
+        <v>-142.33600000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>70326.612612</v>
+        <v>70326.612611999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.535170</v>
+        <v>19.535170000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1050.700000</v>
+        <v>1050.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.943000</v>
+        <v>-226.94300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>70337.921398</v>
+        <v>70337.921398000006</v>
       </c>
       <c r="BJ16" s="1">
         <v>19.538311</v>
       </c>
       <c r="BK16" s="1">
-        <v>1130.630000</v>
+        <v>1130.6300000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.182000</v>
+        <v>-362.18200000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>70349.062575</v>
+        <v>70349.062575000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.541406</v>
+        <v>19.541405999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-569.722000</v>
+        <v>-569.72199999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>70359.534569</v>
+        <v>70359.534568999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.544315</v>
+        <v>19.544315000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="BV16" s="1">
-        <v>-790.112000</v>
+        <v>-790.11199999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>70370.423278</v>
+        <v>70370.423278000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.547340</v>
+        <v>19.547339999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.080000</v>
+        <v>1571.08</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1019.790000</v>
+        <v>-1019.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>70382.686368</v>
+        <v>70382.686367999995</v>
       </c>
       <c r="CD16" s="1">
         <v>19.550746</v>
       </c>
       <c r="CE16" s="1">
-        <v>1974.080000</v>
+        <v>1974.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1556.750000</v>
+        <v>-1556.75</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>70209.163966</v>
+        <v>70209.163965999993</v>
       </c>
       <c r="B17" s="1">
-        <v>19.502546</v>
+        <v>19.502545999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>903.140000</v>
+        <v>903.14</v>
       </c>
       <c r="D17" s="1">
-        <v>-189.334000</v>
+        <v>-189.334</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>70219.601778</v>
+        <v>70219.601777999997</v>
       </c>
       <c r="G17" s="1">
-        <v>19.505445</v>
+        <v>19.505445000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>919.156000</v>
+        <v>919.15599999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.274000</v>
+        <v>-161.274</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>70230.065348</v>
+        <v>70230.065348000004</v>
       </c>
       <c r="L17" s="1">
-        <v>19.508351</v>
+        <v>19.508351000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>941.147000</v>
+        <v>941.14700000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.554000</v>
+        <v>-116.554</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>70240.585014</v>
+        <v>70240.585013999997</v>
       </c>
       <c r="Q17" s="1">
         <v>19.511274</v>
       </c>
       <c r="R17" s="1">
-        <v>947.669000</v>
+        <v>947.66899999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.048000</v>
+        <v>-102.048</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>70251.081832</v>
+        <v>70251.081831999996</v>
       </c>
       <c r="V17" s="1">
-        <v>19.514189</v>
+        <v>19.514188999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>954.381000</v>
+        <v>954.38099999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.940600</v>
+        <v>-88.940600000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>70261.910490</v>
+        <v>70261.910489999995</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.517197</v>
+        <v>19.517196999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.966000</v>
+        <v>961.96600000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.958200</v>
+        <v>-79.958200000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>70272.425181</v>
+        <v>70272.425180999999</v>
       </c>
       <c r="AF17" s="1">
         <v>19.520118</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.173000</v>
+        <v>967.173</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.642100</v>
+        <v>-79.642099999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>70282.914608</v>
+        <v>70282.914608000006</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.523032</v>
+        <v>19.523032000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.171000</v>
+        <v>975.17100000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.375900</v>
+        <v>-87.375900000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>70293.742735</v>
+        <v>70293.742735000007</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.526040</v>
+        <v>19.526039999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.408000</v>
+        <v>984.40800000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>70304.856594</v>
+        <v>70304.856593999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.529127</v>
+        <v>19.529126999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.759000</v>
+        <v>995.75900000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.651000</v>
+        <v>-123.651</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>70315.922339</v>
+        <v>70315.922338999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.532201</v>
+        <v>19.532201000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.390000</v>
+        <v>1005.39</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.342000</v>
+        <v>-142.34200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>70326.976180</v>
+        <v>70326.976179999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.535271</v>
+        <v>19.535271000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1050.700000</v>
+        <v>1050.7</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.922000</v>
+        <v>-226.922</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>70338.337044</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.538427</v>
+        <v>19.538426999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1130.600000</v>
+        <v>1130.5999999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.200000</v>
+        <v>-362.2</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>70349.457846</v>
+        <v>70349.457846000005</v>
       </c>
       <c r="BO17" s="1">
-        <v>19.541516</v>
+        <v>19.541516000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1262.740000</v>
+        <v>1262.74</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-569.747000</v>
+        <v>-569.74699999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>70359.942280</v>
+        <v>70359.942280000003</v>
       </c>
       <c r="BT17" s="1">
         <v>19.544428</v>
       </c>
       <c r="BU17" s="1">
-        <v>1409.990000</v>
+        <v>1409.99</v>
       </c>
       <c r="BV17" s="1">
-        <v>-790.044000</v>
+        <v>-790.04399999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>70370.846827</v>
+        <v>70370.846827000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.547457</v>
+        <v>19.547457000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.230000</v>
+        <v>1571.23</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1019.890000</v>
+        <v>-1019.89</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>70383.238379</v>
+        <v>70383.238379000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.550900</v>
+        <v>19.550899999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1973.130000</v>
+        <v>1973.13</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1555.910000</v>
+        <v>-1555.91</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>70209.509152</v>
+        <v>70209.509151999999</v>
       </c>
       <c r="B18" s="1">
-        <v>19.502641</v>
+        <v>19.502641000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>902.952000</v>
+        <v>902.952</v>
       </c>
       <c r="D18" s="1">
-        <v>-189.326000</v>
+        <v>-189.32599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>70219.949937</v>
+        <v>70219.949936999998</v>
       </c>
       <c r="G18" s="1">
-        <v>19.505542</v>
+        <v>19.505541999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>918.830000</v>
+        <v>918.83</v>
       </c>
       <c r="I18" s="1">
-        <v>-161.251000</v>
+        <v>-161.251</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>70230.414037</v>
+        <v>70230.414036999995</v>
       </c>
       <c r="L18" s="1">
-        <v>19.508448</v>
+        <v>19.508448000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>940.990000</v>
+        <v>940.99</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.427000</v>
+        <v>-116.42700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>70241.251622</v>
+        <v>70241.251621999996</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.511459</v>
+        <v>19.511458999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>947.617000</v>
+        <v>947.61699999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.051000</v>
+        <v>-102.051</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>70251.736701</v>
+        <v>70251.736701000002</v>
       </c>
       <c r="V18" s="1">
-        <v>19.514371</v>
+        <v>19.514371000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>954.295000</v>
+        <v>954.29499999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.796700</v>
+        <v>-88.796700000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>70262.305306</v>
+        <v>70262.305305999995</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.517307</v>
+        <v>19.517306999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.932000</v>
+        <v>961.93200000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.976900</v>
+        <v>-79.976900000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>70272.803131</v>
+        <v>70272.803130999993</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.520223</v>
+        <v>19.520223000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.148000</v>
+        <v>967.14800000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.693100</v>
+        <v>-79.693100000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>70283.264253</v>
+        <v>70283.264253000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.523129</v>
+        <v>19.523129000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.169000</v>
+        <v>975.16899999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.370400</v>
+        <v>-87.370400000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>70294.101863</v>
+        <v>70294.101863000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.526139</v>
+        <v>19.526139000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.380000</v>
+        <v>984.38</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.216000</v>
+        <v>-102.21599999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>70305.219168</v>
+        <v>70305.219167999996</v>
       </c>
       <c r="AU18" s="1">
         <v>19.529228</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.778000</v>
+        <v>995.77800000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.648000</v>
+        <v>-123.648</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>70316.335523</v>
+        <v>70316.335523000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.532315</v>
+        <v>19.532315000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.380000</v>
+        <v>1005.38</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.324000</v>
+        <v>-142.32400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>70327.410676</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.535392</v>
+        <v>19.535392000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1050.710000</v>
+        <v>1050.71</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.922000</v>
+        <v>-226.922</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>70338.695652</v>
+        <v>70338.695651999995</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.538527</v>
+        <v>19.538526999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1130.650000</v>
+        <v>1130.6500000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.136000</v>
+        <v>-362.13600000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>70349.882950</v>
+        <v>70349.882949999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.541634</v>
+        <v>19.541633999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-569.766000</v>
+        <v>-569.76599999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>70360.352968</v>
+        <v>70360.352968000007</v>
       </c>
       <c r="BT18" s="1">
         <v>19.544542</v>
       </c>
       <c r="BU18" s="1">
-        <v>1410.020000</v>
+        <v>1410.02</v>
       </c>
       <c r="BV18" s="1">
-        <v>-789.973000</v>
+        <v>-789.97299999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>70371.295706</v>
+        <v>70371.295706000004</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.547582</v>
+        <v>19.547581999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.190000</v>
+        <v>1571.19</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1019.960000</v>
+        <v>-1019.96</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>70383.769097</v>
+        <v>70383.769096999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.551047</v>
+        <v>19.551047000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.420000</v>
+        <v>1974.42</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1556.800000</v>
+        <v>-1556.8</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>70209.849939</v>
+        <v>70209.849939000007</v>
       </c>
       <c r="B19" s="1">
-        <v>19.502736</v>
+        <v>19.502735999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>902.929000</v>
+        <v>902.92899999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-189.357000</v>
+        <v>-189.357</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>70220.297138</v>
+        <v>70220.297137999994</v>
       </c>
       <c r="G19" s="1">
-        <v>19.505638</v>
+        <v>19.505638000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>918.897000</v>
+        <v>918.89700000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-160.964000</v>
+        <v>-160.964</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>70231.070242</v>
+        <v>70231.070242000002</v>
       </c>
       <c r="L19" s="1">
-        <v>19.508631</v>
+        <v>19.508631000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>940.927000</v>
+        <v>940.92700000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.508000</v>
+        <v>-116.508</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>70241.634038</v>
+        <v>70241.634038000004</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.511565</v>
+        <v>19.511565000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>947.619000</v>
+        <v>947.61900000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.029000</v>
+        <v>-102.029</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>70252.111565</v>
+        <v>70252.111564999999</v>
       </c>
       <c r="V19" s="1">
-        <v>19.514475</v>
+        <v>19.514475000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>954.289000</v>
+        <v>954.28899999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.923400</v>
+        <v>-88.923400000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>70262.653497</v>
+        <v>70262.653497000007</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.517404</v>
+        <v>19.517403999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.909000</v>
+        <v>961.90899999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.963400</v>
+        <v>-79.963399999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>70273.143884</v>
+        <v>70273.143884000005</v>
       </c>
       <c r="AF19" s="1">
         <v>19.520318</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.102000</v>
+        <v>967.10199999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.684500</v>
+        <v>-79.6845</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>70283.615455</v>
+        <v>70283.615455000006</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.523227</v>
+        <v>19.523226999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.196000</v>
+        <v>975.19600000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.396400</v>
+        <v>-87.3964</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>70294.519007</v>
+        <v>70294.519006999995</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.526255</v>
+        <v>19.526254999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.421000</v>
+        <v>984.42100000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.222000</v>
+        <v>-102.22199999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>70305.642257</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.529345</v>
+        <v>19.529344999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.780000</v>
+        <v>995.78</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.666000</v>
+        <v>-123.666</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>70316.639586</v>
+        <v>70316.639586000005</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.532400</v>
+        <v>19.532399999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.380000</v>
+        <v>1005.38</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.336000</v>
+        <v>-142.33600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>70327.694386</v>
+        <v>70327.694386000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.535471</v>
+        <v>19.535471000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1050.700000</v>
+        <v>1050.7</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.945000</v>
+        <v>-226.94499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>70339.069141</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.538630</v>
+        <v>19.538630000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1130.640000</v>
+        <v>1130.6400000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.161000</v>
+        <v>-362.161</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>70350.274261</v>
+        <v>70350.274260999999</v>
       </c>
       <c r="BO19" s="1">
         <v>19.541743</v>
       </c>
       <c r="BP19" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-569.740000</v>
+        <v>-569.74</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>70360.772088</v>
+        <v>70360.772087999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.544659</v>
+        <v>19.544658999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1410.160000</v>
+        <v>1410.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-789.999000</v>
+        <v>-789.99900000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>70371.724282</v>
+        <v>70371.724281999996</v>
       </c>
       <c r="BY19" s="1">
         <v>19.547701</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.190000</v>
+        <v>1571.19</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1019.870000</v>
+        <v>-1019.87</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>70384.283945</v>
+        <v>70384.283945000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.551190</v>
+        <v>19.551189999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1973.840000</v>
+        <v>1973.84</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1556.770000</v>
+        <v>-1556.77</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>70210.504126</v>
       </c>
       <c r="B20" s="1">
-        <v>19.502918</v>
+        <v>19.502918000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>902.953000</v>
+        <v>902.95299999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-189.292000</v>
+        <v>-189.292</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>70220.960825</v>
+        <v>70220.960825000002</v>
       </c>
       <c r="G20" s="1">
-        <v>19.505822</v>
+        <v>19.505821999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>919.391000</v>
+        <v>919.39099999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-161.125000</v>
+        <v>-161.125</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>70231.447202</v>
+        <v>70231.447201999996</v>
       </c>
       <c r="L20" s="1">
-        <v>19.508735</v>
+        <v>19.508735000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>941.133000</v>
+        <v>941.13300000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.550000</v>
+        <v>-116.55</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>70241.981237</v>
@@ -5152,964 +5568,964 @@
         <v>19.511661</v>
       </c>
       <c r="R20" s="1">
-        <v>947.616000</v>
+        <v>947.61599999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.054000</v>
+        <v>-102.054</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>70252.456281</v>
+        <v>70252.456281000006</v>
       </c>
       <c r="V20" s="1">
         <v>19.514571</v>
       </c>
       <c r="W20" s="1">
-        <v>954.436000</v>
+        <v>954.43600000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.905800</v>
+        <v>-88.905799999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>70263.003208</v>
+        <v>70263.003207999995</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.517501</v>
+        <v>19.517500999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.873000</v>
+        <v>961.87300000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.982900</v>
+        <v>-79.982900000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>70273.492570</v>
+        <v>70273.492570000002</v>
       </c>
       <c r="AF20" s="1">
         <v>19.520415</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.113000</v>
+        <v>967.11300000000006</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.750000</v>
+        <v>-79.75</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>70284.039502</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.523344</v>
+        <v>19.523344000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.179000</v>
+        <v>975.17899999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.354200</v>
+        <v>-87.354200000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>70294.821536</v>
+        <v>70294.821536000003</v>
       </c>
       <c r="AP20" s="1">
         <v>19.526339</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.403000</v>
+        <v>984.40300000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.195000</v>
+        <v>-102.19499999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>70305.944818</v>
+        <v>70305.944818000004</v>
       </c>
       <c r="AU20" s="1">
         <v>19.529429</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.763000</v>
+        <v>995.76300000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.664000</v>
+        <v>-123.664</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>70317.000674</v>
+        <v>70317.000673999995</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.532500</v>
+        <v>19.532499999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.380000</v>
+        <v>1005.38</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.324000</v>
+        <v>-142.32400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>70328.056994</v>
+        <v>70328.056993999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.535571</v>
+        <v>19.535571000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.916000</v>
+        <v>-226.916</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>70339.445603</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.538735</v>
+        <v>19.538734999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1130.640000</v>
+        <v>1130.6400000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.136000</v>
+        <v>-362.13600000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>70350.705781</v>
+        <v>70350.705780999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.541863</v>
+        <v>19.541862999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1262.760000</v>
+        <v>1262.76</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-569.736000</v>
+        <v>-569.73599999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>70361.201622</v>
+        <v>70361.201621999993</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.544778</v>
+        <v>19.544778000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1410.280000</v>
+        <v>1410.28</v>
       </c>
       <c r="BV20" s="1">
-        <v>-789.960000</v>
+        <v>-789.96</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>70372.147336</v>
+        <v>70372.147335999995</v>
       </c>
       <c r="BY20" s="1">
         <v>19.547819</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.110000</v>
+        <v>1571.11</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1019.890000</v>
+        <v>-1019.89</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>70384.838967</v>
+        <v>70384.838967000003</v>
       </c>
       <c r="CD20" s="1">
         <v>19.551344</v>
       </c>
       <c r="CE20" s="1">
-        <v>1973.230000</v>
+        <v>1973.23</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1555.660000</v>
+        <v>-1555.66</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>70210.874670</v>
+        <v>70210.874670000005</v>
       </c>
       <c r="B21" s="1">
         <v>19.503021</v>
       </c>
       <c r="C21" s="1">
-        <v>902.967000</v>
+        <v>902.96699999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-189.319000</v>
+        <v>-189.31899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>70221.329807</v>
+        <v>70221.329807000002</v>
       </c>
       <c r="G21" s="1">
-        <v>19.505925</v>
+        <v>19.505925000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>918.907000</v>
+        <v>918.90700000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-161.145000</v>
+        <v>-161.14500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>70231.794899</v>
       </c>
       <c r="L21" s="1">
-        <v>19.508832</v>
+        <v>19.508832000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>941.051000</v>
+        <v>941.05100000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.432000</v>
+        <v>-116.432</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>70242.329958</v>
+        <v>70242.329958000002</v>
       </c>
       <c r="Q21" s="1">
         <v>19.511758</v>
       </c>
       <c r="R21" s="1">
-        <v>947.644000</v>
+        <v>947.64400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.998000</v>
+        <v>-101.998</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>70252.799478</v>
+        <v>70252.799478000001</v>
       </c>
       <c r="V21" s="1">
-        <v>19.514667</v>
+        <v>19.514666999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>954.270000</v>
+        <v>954.27</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.995800</v>
+        <v>-88.995800000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>70263.421305</v>
+        <v>70263.421304999996</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.517617</v>
+        <v>19.517617000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.947000</v>
+        <v>961.947</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.918200</v>
+        <v>-79.918199999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>70273.930575</v>
+        <v>70273.930575000006</v>
       </c>
       <c r="AF21" s="1">
         <v>19.520536</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.112000</v>
+        <v>967.11199999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.641800</v>
+        <v>-79.641800000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>70284.319740</v>
+        <v>70284.319740000006</v>
       </c>
       <c r="AK21" s="1">
         <v>19.523422</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.213000</v>
+        <v>975.21299999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.390600</v>
+        <v>-87.390600000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>70295.183614</v>
+        <v>70295.183613999994</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.526440</v>
+        <v>19.526440000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.415000</v>
+        <v>984.41499999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.219000</v>
+        <v>-102.21899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>70306.311392</v>
+        <v>70306.311392000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.529531</v>
+        <v>19.529530999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.791000</v>
+        <v>995.79100000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.662000</v>
+        <v>-123.66200000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>70317.356769</v>
+        <v>70317.356769000005</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.532599</v>
+        <v>19.532599000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.370000</v>
+        <v>1005.37</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.319000</v>
+        <v>-142.31899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>70328.420033</v>
+        <v>70328.420033000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.535672</v>
+        <v>19.535672000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1050.710000</v>
+        <v>1050.71</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.932000</v>
+        <v>-226.93199999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>70340.196546</v>
+        <v>70340.196546000006</v>
       </c>
       <c r="BJ21" s="1">
         <v>19.538943</v>
       </c>
       <c r="BK21" s="1">
-        <v>1130.610000</v>
+        <v>1130.6099999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.184000</v>
+        <v>-362.18400000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>70351.094708</v>
+        <v>70351.094708000004</v>
       </c>
       <c r="BO21" s="1">
         <v>19.541971</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.790000</v>
+        <v>1262.79</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-569.717000</v>
+        <v>-569.71699999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>70361.602919</v>
+        <v>70361.602918999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.544890</v>
+        <v>19.544889999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.320000</v>
+        <v>1410.32</v>
       </c>
       <c r="BV21" s="1">
-        <v>-789.891000</v>
+        <v>-789.89099999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>70372.567945</v>
+        <v>70372.567945000003</v>
       </c>
       <c r="BY21" s="1">
         <v>19.547936</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1570.980000</v>
+        <v>1570.98</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1019.770000</v>
+        <v>-1019.77</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>70385.679687</v>
+        <v>70385.679686999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.551578</v>
+        <v>19.551577999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1974.230000</v>
+        <v>1974.23</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1556.830000</v>
+        <v>-1556.83</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>70211.220845</v>
+        <v>70211.220845000003</v>
       </c>
       <c r="B22" s="1">
         <v>19.503117</v>
       </c>
       <c r="C22" s="1">
-        <v>902.921000</v>
+        <v>902.92100000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-189.304000</v>
+        <v>-189.304</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>70221.676511</v>
+        <v>70221.676510999998</v>
       </c>
       <c r="G22" s="1">
         <v>19.506021</v>
       </c>
       <c r="H22" s="1">
-        <v>919.322000</v>
+        <v>919.322</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.182000</v>
+        <v>-161.18199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>70232.139653</v>
+        <v>70232.139653000006</v>
       </c>
       <c r="L22" s="1">
-        <v>19.508928</v>
+        <v>19.508928000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>941.045000</v>
+        <v>941.04499999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.738000</v>
+        <v>-116.738</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>70242.756019</v>
+        <v>70242.756018999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.511877</v>
+        <v>19.511876999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>947.652000</v>
+        <v>947.65200000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.042000</v>
+        <v>-102.042</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>70253.219093</v>
+        <v>70253.219093000007</v>
       </c>
       <c r="V22" s="1">
-        <v>19.514783</v>
+        <v>19.514783000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.411000</v>
+        <v>954.41099999999994</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.961300</v>
+        <v>-88.961299999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>70263.710473</v>
+        <v>70263.710472999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.517697</v>
+        <v>19.517696999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.973000</v>
+        <v>961.97299999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.012400</v>
+        <v>-80.0124</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>70274.196394</v>
+        <v>70274.196393999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.520610</v>
+        <v>19.520610000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.113000</v>
+        <v>967.11300000000006</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.603000</v>
+        <v>-79.602999999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>70284.669452</v>
+        <v>70284.669452000002</v>
       </c>
       <c r="AK22" s="1">
         <v>19.523519</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.164000</v>
+        <v>975.16399999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.391500</v>
+        <v>-87.391499999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>70295.543213</v>
+        <v>70295.543212999997</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.526540</v>
+        <v>19.526540000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.409000</v>
+        <v>984.40899999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>70306.675455</v>
+        <v>70306.675455000004</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.529632</v>
+        <v>19.529631999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.763000</v>
+        <v>995.76300000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.637000</v>
+        <v>-123.637</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>70318.079441</v>
+        <v>70318.079440999994</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.532800</v>
+        <v>19.532800000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.390000</v>
+        <v>1005.39</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.337000</v>
+        <v>-142.33699999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>70329.141217</v>
+        <v>70329.141216999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.535873</v>
+        <v>19.535872999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.942000</v>
+        <v>-226.94200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>70340.575490</v>
+        <v>70340.575490000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.539049</v>
+        <v>19.539048999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1130.630000</v>
+        <v>1130.6300000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.176000</v>
+        <v>-362.17599999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>70351.515253</v>
+        <v>70351.515253000005</v>
       </c>
       <c r="BO22" s="1">
         <v>19.542088</v>
       </c>
       <c r="BP22" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-569.749000</v>
+        <v>-569.74900000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>70362.018037</v>
+        <v>70362.018037000002</v>
       </c>
       <c r="BT22" s="1">
         <v>19.545005</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.410000</v>
+        <v>1410.41</v>
       </c>
       <c r="BV22" s="1">
-        <v>-790.062000</v>
+        <v>-790.06200000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>70373.304999</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.548140</v>
+        <v>19.54814</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.030000</v>
+        <v>1571.03</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1019.950000</v>
+        <v>-1019.95</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>70385.920774</v>
+        <v>70385.920773999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.551645</v>
+        <v>19.551645000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1975.050000</v>
+        <v>1975.05</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1555.690000</v>
+        <v>-1555.69</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>70211.560604</v>
+        <v>70211.560603999998</v>
       </c>
       <c r="B23" s="1">
         <v>19.503211</v>
       </c>
       <c r="C23" s="1">
-        <v>902.911000</v>
+        <v>902.91099999999994</v>
       </c>
       <c r="D23" s="1">
-        <v>-189.290000</v>
+        <v>-189.29</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>70222.019248</v>
+        <v>70222.019247999997</v>
       </c>
       <c r="G23" s="1">
-        <v>19.506116</v>
+        <v>19.506115999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>919.101000</v>
+        <v>919.101</v>
       </c>
       <c r="I23" s="1">
-        <v>-161.222000</v>
+        <v>-161.22200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>70232.563201</v>
+        <v>70232.563200999997</v>
       </c>
       <c r="L23" s="1">
         <v>19.509045</v>
       </c>
       <c r="M23" s="1">
-        <v>940.845000</v>
+        <v>940.84500000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.742000</v>
+        <v>-116.742</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>70243.029283</v>
+        <v>70243.029282999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.511953</v>
+        <v>19.511952999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>947.690000</v>
+        <v>947.69</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.060000</v>
+        <v>-102.06</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>70253.508790</v>
+        <v>70253.508790000007</v>
       </c>
       <c r="V23" s="1">
-        <v>19.514864</v>
+        <v>19.514863999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>954.374000</v>
+        <v>954.37400000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.961200</v>
+        <v>-88.961200000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>70264.058205</v>
+        <v>70264.058204999994</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.517794</v>
+        <v>19.517793999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.847000</v>
+        <v>961.84699999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.053800</v>
+        <v>-80.053799999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>70274.538633</v>
+        <v>70274.538633000004</v>
       </c>
       <c r="AF23" s="1">
         <v>19.520705</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.114000</v>
+        <v>967.11400000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.740700</v>
+        <v>-79.740700000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>70285.017115</v>
+        <v>70285.017114999995</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.523616</v>
+        <v>19.523616000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.205000</v>
+        <v>975.20500000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.390800</v>
+        <v>-87.390799999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>70296.263900</v>
+        <v>70296.263900000005</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.526740</v>
+        <v>19.52674</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.398000</v>
+        <v>984.39800000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.215000</v>
+        <v>-102.215</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>70307.406030</v>
+        <v>70307.406029999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.529835</v>
+        <v>19.529834999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.750000</v>
+        <v>995.75</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.644000</v>
+        <v>-123.64400000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>70318.455904</v>
+        <v>70318.455904000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.532904</v>
+        <v>19.532903999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.380000</v>
+        <v>1005.38</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.342000</v>
+        <v>-142.34200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>70329.502835</v>
+        <v>70329.502835000007</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.535973</v>
+        <v>19.535972999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.953000</v>
+        <v>-226.953</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>70340.950465</v>
+        <v>70340.950465000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.539153</v>
+        <v>19.539152999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1130.630000</v>
+        <v>1130.6300000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.152000</v>
+        <v>-362.15199999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>70352.216596</v>
+        <v>70352.216595999998</v>
       </c>
       <c r="BO23" s="1">
         <v>19.542282</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-569.705000</v>
+        <v>-569.70500000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>70362.742693</v>
+        <v>70362.742692999993</v>
       </c>
       <c r="BT23" s="1">
         <v>19.545206</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.450000</v>
+        <v>1410.45</v>
       </c>
       <c r="BV23" s="1">
-        <v>-790.012000</v>
+        <v>-790.01199999999994</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>70373.414118</v>
+        <v>70373.414118000001</v>
       </c>
       <c r="BY23" s="1">
         <v>19.548171</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.240000</v>
+        <v>1571.24</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1019.990000</v>
+        <v>-1019.99</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>70386.453941</v>
@@ -6118,16 +6534,16 @@
         <v>19.551793</v>
       </c>
       <c r="CE23" s="1">
-        <v>1973.350000</v>
+        <v>1973.35</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1555.250000</v>
+        <v>-1555.25</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>70211.979259</v>
       </c>
@@ -6135,617 +6551,617 @@
         <v>19.503328</v>
       </c>
       <c r="C24" s="1">
-        <v>903.085000</v>
+        <v>903.08500000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-189.245000</v>
+        <v>-189.245</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>70222.436382</v>
       </c>
       <c r="G24" s="1">
-        <v>19.506232</v>
+        <v>19.506232000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>919.311000</v>
+        <v>919.31100000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.328000</v>
+        <v>-161.328</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>70232.850912</v>
+        <v>70232.850911999994</v>
       </c>
       <c r="L24" s="1">
-        <v>19.509125</v>
+        <v>19.509125000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>940.953000</v>
+        <v>940.95299999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.537000</v>
+        <v>-116.53700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>70243.375492</v>
+        <v>70243.375492000006</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.512049</v>
+        <v>19.512049000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>947.675000</v>
+        <v>947.67499999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.060000</v>
+        <v>-102.06</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>70253.852006</v>
+        <v>70253.852006000001</v>
       </c>
       <c r="V24" s="1">
-        <v>19.514959</v>
+        <v>19.514959000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>954.325000</v>
+        <v>954.32500000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.949400</v>
+        <v>-88.949399999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>70264.404408</v>
+        <v>70264.404408000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.517890</v>
+        <v>19.517890000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.031000</v>
+        <v>962.03099999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.973500</v>
+        <v>-79.973500000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>70274.882857</v>
+        <v>70274.882857000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.520801</v>
+        <v>19.520800999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.115000</v>
+        <v>967.11500000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.736700</v>
+        <v>-79.736699999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>70285.716486</v>
+        <v>70285.716486000005</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.523810</v>
+        <v>19.523810000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.184000</v>
+        <v>975.18399999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.376300</v>
+        <v>-87.376300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>70296.649360</v>
+        <v>70296.649359999996</v>
       </c>
       <c r="AP24" s="1">
         <v>19.526847</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.405000</v>
+        <v>984.40499999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.199000</v>
+        <v>-102.199</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>70307.797406</v>
+        <v>70307.797405999998</v>
       </c>
       <c r="AU24" s="1">
         <v>19.529944</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.771000</v>
+        <v>995.77099999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.647000</v>
+        <v>-123.64700000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>70318.846752</v>
+        <v>70318.846751999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>19.533013</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.380000</v>
+        <v>1005.38</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.336000</v>
+        <v>-142.33600000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>70330.163127</v>
+        <v>70330.163127000007</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.536156</v>
+        <v>19.536155999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1050.690000</v>
+        <v>1050.69</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.930000</v>
+        <v>-226.93</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>70341.640400</v>
+        <v>70341.640400000004</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.539345</v>
+        <v>19.539345000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1130.610000</v>
+        <v>1130.6099999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.191000</v>
+        <v>-362.19099999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>70352.333683</v>
+        <v>70352.333683000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.542315</v>
+        <v>19.542314999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.750000</v>
+        <v>1262.75</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-569.704000</v>
+        <v>-569.70399999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>70362.865241</v>
+        <v>70362.865241000007</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.545240</v>
+        <v>19.54524</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="BV24" s="1">
-        <v>-790.096000</v>
+        <v>-790.096</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>70373.848151</v>
+        <v>70373.848150999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.548291</v>
+        <v>19.548290999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.300000</v>
+        <v>1571.3</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1019.820000</v>
+        <v>-1019.82</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>70386.993094</v>
+        <v>70386.993094000005</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.551943</v>
+        <v>19.551943000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1975.110000</v>
+        <v>1975.11</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1556.720000</v>
+        <v>-1556.72</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>70212.258507</v>
+        <v>70212.258507000006</v>
       </c>
       <c r="B25" s="1">
-        <v>19.503405</v>
+        <v>19.503405000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.874000</v>
+        <v>902.87400000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-189.213000</v>
+        <v>-189.21299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>70222.708686</v>
+        <v>70222.708685999998</v>
       </c>
       <c r="G25" s="1">
-        <v>19.506308</v>
+        <v>19.506308000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>918.892000</v>
+        <v>918.89200000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-160.570000</v>
+        <v>-160.57</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>70233.195601</v>
+        <v>70233.195600999999</v>
       </c>
       <c r="L25" s="1">
         <v>19.509221</v>
       </c>
       <c r="M25" s="1">
-        <v>941.023000</v>
+        <v>941.02300000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.548000</v>
+        <v>-116.548</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>70243.724707</v>
+        <v>70243.724707000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.512146</v>
+        <v>19.512146000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>947.641000</v>
+        <v>947.64099999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.034000</v>
+        <v>-102.03400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>70254.195221</v>
+        <v>70254.195221000002</v>
       </c>
       <c r="V25" s="1">
-        <v>19.515054</v>
+        <v>19.515053999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>954.456000</v>
+        <v>954.45600000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.025200</v>
+        <v>-89.025199999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>70265.101255</v>
+        <v>70265.101255000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.518084</v>
+        <v>19.518084000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.976000</v>
+        <v>961.976</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.931000</v>
+        <v>-79.930999999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>70275.592177</v>
+        <v>70275.592176999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.520998</v>
+        <v>19.520997999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.088000</v>
+        <v>967.08799999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.666300</v>
+        <v>-79.666300000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>70286.064704</v>
+        <v>70286.064704000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.523907</v>
+        <v>19.523907000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.190000</v>
+        <v>975.19</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.398300</v>
+        <v>-87.398300000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>70297.031247</v>
+        <v>70297.031247000006</v>
       </c>
       <c r="AP25" s="1">
-        <v>19.526953</v>
+        <v>19.526952999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.405000</v>
+        <v>984.40499999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.204000</v>
+        <v>-102.20399999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>70308.158473</v>
+        <v>70308.158473000003</v>
       </c>
       <c r="AU25" s="1">
         <v>19.530044</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.756000</v>
+        <v>995.75599999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.664000</v>
+        <v>-123.664</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>70319.517342</v>
+        <v>70319.517342000006</v>
       </c>
       <c r="AZ25" s="1">
         <v>19.533199</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.400000</v>
+        <v>1005.4</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.340000</v>
+        <v>-142.34</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>70330.617807</v>
+        <v>70330.617807000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.536283</v>
+        <v>19.536283000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.710000</v>
+        <v>1050.71</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.923000</v>
+        <v>-226.923</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>70342.074928</v>
+        <v>70342.074928000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>19.539465</v>
       </c>
       <c r="BK25" s="1">
-        <v>1130.600000</v>
+        <v>1130.5999999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.156000</v>
+        <v>-362.15600000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>70352.756243</v>
+        <v>70352.756242999996</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.542432</v>
+        <v>19.542432000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1262.730000</v>
+        <v>1262.73</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-569.697000</v>
+        <v>-569.697</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>70363.283333</v>
+        <v>70363.283332999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.545356</v>
+        <v>19.545356000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.590000</v>
+        <v>1410.59</v>
       </c>
       <c r="BV25" s="1">
-        <v>-790.092000</v>
+        <v>-790.09199999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>70374.268230</v>
+        <v>70374.268230000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.548408</v>
+        <v>19.548407999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.160000</v>
+        <v>1571.16</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1019.820000</v>
+        <v>-1019.82</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>70387.533236</v>
+        <v>70387.533236000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.552093</v>
+        <v>19.552092999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1974.240000</v>
+        <v>1974.24</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1554.890000</v>
+        <v>-1554.89</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>70212.601242</v>
+        <v>70212.601242000004</v>
       </c>
       <c r="B26" s="1">
-        <v>19.503500</v>
+        <v>19.503499999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>902.893000</v>
+        <v>902.89300000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-189.334000</v>
+        <v>-189.334</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>70223.051456</v>
+        <v>70223.051456000001</v>
       </c>
       <c r="G26" s="1">
-        <v>19.506403</v>
+        <v>19.506402999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>919.492000</v>
+        <v>919.49199999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-160.984000</v>
+        <v>-160.98400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>70233.542799</v>
+        <v>70233.542799000003</v>
       </c>
       <c r="L26" s="1">
-        <v>19.509317</v>
+        <v>19.509316999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>940.916000</v>
+        <v>940.91600000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.608000</v>
+        <v>-116.608</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>70244.420895</v>
+        <v>70244.420895000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.512339</v>
+        <v>19.512339000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>947.644000</v>
+        <v>947.64400000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.994000</v>
+        <v>-101.994</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>70254.883172</v>
+        <v>70254.883172000002</v>
       </c>
       <c r="V26" s="1">
         <v>19.515245</v>
       </c>
       <c r="W26" s="1">
-        <v>954.342000</v>
+        <v>954.34199999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.886400</v>
+        <v>-88.886399999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>70265.452164</v>
+        <v>70265.452164000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.518181</v>
+        <v>19.518180999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.984000</v>
+        <v>961.98400000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.912900</v>
+        <v>-79.912899999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>70275.914044</v>
+        <v>70275.914044000005</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.521087</v>
+        <v>19.521087000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.010000</v>
+        <v>967.01</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.475700</v>
+        <v>-79.475700000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>70286.409881</v>
@@ -6754,13 +7170,13 @@
         <v>19.524003</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.190000</v>
+        <v>975.19</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.378100</v>
+        <v>-87.378100000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>70297.707788</v>
@@ -6769,135 +7185,136 @@
         <v>19.527141</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.413000</v>
+        <v>984.41300000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.194000</v>
+        <v>-102.194</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>70308.834508</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.530232</v>
+        <v>19.530232000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.770000</v>
+        <v>995.77</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.655000</v>
+        <v>-123.655</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>70319.920621</v>
+        <v>70319.920620999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.533311</v>
+        <v>19.533311000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.400000</v>
+        <v>1005.4</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.338000</v>
+        <v>-142.33799999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>70330.977407</v>
+        <v>70330.977406999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.536383</v>
+        <v>19.536383000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1050.670000</v>
+        <v>1050.67</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.937000</v>
+        <v>-226.93700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>70342.452351</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.539570</v>
+        <v>19.539570000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1130.630000</v>
+        <v>1130.6300000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.162000</v>
+        <v>-362.16199999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>70353.153538</v>
+        <v>70353.153537999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.542543</v>
+        <v>19.542542999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-569.767000</v>
+        <v>-569.76700000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>70363.738164</v>
+        <v>70363.738163999995</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.545483</v>
+        <v>19.545483000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.630000</v>
+        <v>1410.63</v>
       </c>
       <c r="BV26" s="1">
-        <v>-790.248000</v>
+        <v>-790.24800000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>70374.687350</v>
+        <v>70374.687349999993</v>
       </c>
       <c r="BY26" s="1">
         <v>19.548524</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.150000</v>
+        <v>1571.15</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1019.740000</v>
+        <v>-1019.74</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>70388.072388</v>
+        <v>70388.072388000001</v>
       </c>
       <c r="CD26" s="1">
         <v>19.552242</v>
       </c>
       <c r="CE26" s="1">
-        <v>1973.730000</v>
+        <v>1973.73</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1556.910000</v>
+        <v>-1556.91</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>